--- a/Buffalo_ADC and GPIO.xlsx
+++ b/Buffalo_ADC and GPIO.xlsx
@@ -4362,6 +4362,15 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4380,6 +4389,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4393,45 +4432,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -4504,57 +4504,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>37072</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="image001"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8782050" y="5086350"/>
-          <a:ext cx="7448550" cy="4209022"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4847,7 +4796,7 @@
   <dimension ref="A1:AV44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="Z18" sqref="Z18"/>
+      <selection activeCell="AD37" sqref="AD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6364,7 +6313,6 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6373,7 +6321,7 @@
   <dimension ref="A1:V40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7661,24 +7609,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="20.25">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="166" t="s">
         <v>784</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="170"/>
-      <c r="L1" s="168" t="s">
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="168"/>
+      <c r="L1" s="166" t="s">
         <v>785</v>
       </c>
-      <c r="M1" s="169"/>
-      <c r="N1" s="169"/>
-      <c r="O1" s="169"/>
-      <c r="P1" s="169"/>
-      <c r="Q1" s="169"/>
-      <c r="R1" s="170"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="167"/>
+      <c r="O1" s="167"/>
+      <c r="P1" s="167"/>
+      <c r="Q1" s="167"/>
+      <c r="R1" s="168"/>
     </row>
     <row r="2" spans="1:18" ht="42.75">
       <c r="A2" s="1" t="s">
@@ -7725,7 +7673,7 @@
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="157" t="s">
+      <c r="A3" s="160" t="s">
         <v>783</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -7742,7 +7690,7 @@
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="L3" s="157" t="s">
+      <c r="L3" s="160" t="s">
         <v>25</v>
       </c>
       <c r="M3" s="5" t="s">
@@ -7761,7 +7709,7 @@
       <c r="R3" s="6"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="157"/>
+      <c r="A4" s="160"/>
       <c r="B4" s="5" t="s">
         <v>29</v>
       </c>
@@ -7776,7 +7724,7 @@
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="L4" s="157"/>
+      <c r="L4" s="160"/>
       <c r="M4" s="5" t="s">
         <v>29</v>
       </c>
@@ -7793,7 +7741,7 @@
       <c r="R4" s="6"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="157"/>
+      <c r="A5" s="160"/>
       <c r="B5" s="5" t="s">
         <v>31</v>
       </c>
@@ -7808,7 +7756,7 @@
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="L5" s="157"/>
+      <c r="L5" s="160"/>
       <c r="M5" s="5" t="s">
         <v>31</v>
       </c>
@@ -7825,7 +7773,7 @@
       <c r="R5" s="6"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="157"/>
+      <c r="A6" s="160"/>
       <c r="B6" s="5" t="s">
         <v>33</v>
       </c>
@@ -7840,7 +7788,7 @@
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="L6" s="157"/>
+      <c r="L6" s="160"/>
       <c r="M6" s="5" t="s">
         <v>33</v>
       </c>
@@ -7857,7 +7805,7 @@
       <c r="R6" s="6"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="157"/>
+      <c r="A7" s="160"/>
       <c r="B7" s="5" t="s">
         <v>35</v>
       </c>
@@ -7872,7 +7820,7 @@
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="L7" s="157"/>
+      <c r="L7" s="160"/>
       <c r="M7" s="5" t="s">
         <v>35</v>
       </c>
@@ -7889,7 +7837,7 @@
       <c r="R7" s="6"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="157"/>
+      <c r="A8" s="160"/>
       <c r="B8" s="5" t="s">
         <v>37</v>
       </c>
@@ -7904,7 +7852,7 @@
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="L8" s="157"/>
+      <c r="L8" s="160"/>
       <c r="M8" s="5" t="s">
         <v>37</v>
       </c>
@@ -7921,7 +7869,7 @@
       <c r="R8" s="6"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="157"/>
+      <c r="A9" s="160"/>
       <c r="B9" s="5" t="s">
         <v>39</v>
       </c>
@@ -7936,7 +7884,7 @@
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-      <c r="L9" s="157"/>
+      <c r="L9" s="160"/>
       <c r="M9" s="5" t="s">
         <v>39</v>
       </c>
@@ -7953,7 +7901,7 @@
       <c r="R9" s="6"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="157"/>
+      <c r="A10" s="160"/>
       <c r="B10" s="5" t="s">
         <v>41</v>
       </c>
@@ -7968,7 +7916,7 @@
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="L10" s="157"/>
+      <c r="L10" s="160"/>
       <c r="M10" s="5" t="s">
         <v>41</v>
       </c>
@@ -7985,7 +7933,7 @@
       <c r="R10" s="6"/>
     </row>
     <row r="11" spans="1:18" ht="27">
-      <c r="A11" s="157"/>
+      <c r="A11" s="160"/>
       <c r="B11" s="9" t="s">
         <v>43</v>
       </c>
@@ -8000,7 +7948,7 @@
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="L11" s="157"/>
+      <c r="L11" s="160"/>
       <c r="M11" s="9" t="s">
         <v>43</v>
       </c>
@@ -8017,7 +7965,7 @@
       <c r="R11" s="6"/>
     </row>
     <row r="12" spans="1:18" ht="27">
-      <c r="A12" s="157"/>
+      <c r="A12" s="160"/>
       <c r="B12" s="10" t="s">
         <v>46</v>
       </c>
@@ -8032,7 +7980,7 @@
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="L12" s="157"/>
+      <c r="L12" s="160"/>
       <c r="M12" s="10" t="s">
         <v>46</v>
       </c>
@@ -8049,7 +7997,7 @@
       <c r="R12" s="6"/>
     </row>
     <row r="13" spans="1:18" ht="27">
-      <c r="A13" s="157"/>
+      <c r="A13" s="160"/>
       <c r="B13" s="9" t="s">
         <v>49</v>
       </c>
@@ -8064,7 +8012,7 @@
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="L13" s="157"/>
+      <c r="L13" s="160"/>
       <c r="M13" s="11" t="s">
         <v>807</v>
       </c>
@@ -8081,7 +8029,7 @@
       <c r="R13" s="6"/>
     </row>
     <row r="14" spans="1:18" ht="27">
-      <c r="A14" s="157"/>
+      <c r="A14" s="160"/>
       <c r="B14" s="9" t="s">
         <v>52</v>
       </c>
@@ -8096,7 +8044,7 @@
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="L14" s="157"/>
+      <c r="L14" s="160"/>
       <c r="M14" s="9" t="s">
         <v>52</v>
       </c>
@@ -8113,7 +8061,7 @@
       <c r="R14" s="6"/>
     </row>
     <row r="15" spans="1:18" ht="27">
-      <c r="A15" s="157"/>
+      <c r="A15" s="160"/>
       <c r="B15" s="9" t="s">
         <v>55</v>
       </c>
@@ -8128,7 +8076,7 @@
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="L15" s="157"/>
+      <c r="L15" s="160"/>
       <c r="M15" s="11" t="s">
         <v>808</v>
       </c>
@@ -8145,7 +8093,7 @@
       <c r="R15" s="6"/>
     </row>
     <row r="16" spans="1:18" ht="27">
-      <c r="A16" s="157"/>
+      <c r="A16" s="160"/>
       <c r="B16" s="9" t="s">
         <v>58</v>
       </c>
@@ -8160,7 +8108,7 @@
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="L16" s="157"/>
+      <c r="L16" s="160"/>
       <c r="M16" s="11" t="s">
         <v>809</v>
       </c>
@@ -8177,7 +8125,7 @@
       <c r="R16" s="6"/>
     </row>
     <row r="17" spans="1:18" ht="27">
-      <c r="A17" s="157"/>
+      <c r="A17" s="160"/>
       <c r="B17" s="9" t="s">
         <v>61</v>
       </c>
@@ -8192,7 +8140,7 @@
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="L17" s="157"/>
+      <c r="L17" s="160"/>
       <c r="M17" s="11" t="s">
         <v>813</v>
       </c>
@@ -8209,7 +8157,7 @@
       <c r="R17" s="6"/>
     </row>
     <row r="18" spans="1:18" ht="27">
-      <c r="A18" s="157"/>
+      <c r="A18" s="160"/>
       <c r="B18" s="9" t="s">
         <v>64</v>
       </c>
@@ -8224,7 +8172,7 @@
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="L18" s="157"/>
+      <c r="L18" s="160"/>
       <c r="M18" s="11" t="s">
         <v>810</v>
       </c>
@@ -8241,7 +8189,7 @@
       <c r="R18" s="6"/>
     </row>
     <row r="19" spans="1:18" ht="27">
-      <c r="A19" s="157"/>
+      <c r="A19" s="160"/>
       <c r="B19" s="11" t="s">
         <v>67</v>
       </c>
@@ -8256,7 +8204,7 @@
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="L19" s="157"/>
+      <c r="L19" s="160"/>
       <c r="M19" s="11" t="s">
         <v>811</v>
       </c>
@@ -8273,7 +8221,7 @@
       <c r="R19" s="6"/>
     </row>
     <row r="20" spans="1:18" ht="27">
-      <c r="A20" s="157"/>
+      <c r="A20" s="160"/>
       <c r="B20" s="12" t="s">
         <v>70</v>
       </c>
@@ -8288,7 +8236,7 @@
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="L20" s="157"/>
+      <c r="L20" s="160"/>
       <c r="M20" s="155" t="s">
         <v>793</v>
       </c>
@@ -8305,7 +8253,7 @@
       <c r="R20" s="6"/>
     </row>
     <row r="21" spans="1:18" ht="27">
-      <c r="A21" s="157"/>
+      <c r="A21" s="160"/>
       <c r="B21" s="12" t="s">
         <v>73</v>
       </c>
@@ -8320,7 +8268,7 @@
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="L21" s="157"/>
+      <c r="L21" s="160"/>
       <c r="M21" s="12" t="s">
         <v>73</v>
       </c>
@@ -8337,7 +8285,7 @@
       <c r="R21" s="6"/>
     </row>
     <row r="22" spans="1:18" ht="27">
-      <c r="A22" s="157"/>
+      <c r="A22" s="160"/>
       <c r="B22" s="9" t="s">
         <v>76</v>
       </c>
@@ -8352,7 +8300,7 @@
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="L22" s="157"/>
+      <c r="L22" s="160"/>
       <c r="M22" s="9" t="s">
         <v>76</v>
       </c>
@@ -8369,7 +8317,7 @@
       <c r="R22" s="6"/>
     </row>
     <row r="23" spans="1:18" ht="27">
-      <c r="A23" s="157"/>
+      <c r="A23" s="160"/>
       <c r="B23" s="9" t="s">
         <v>79</v>
       </c>
@@ -8384,7 +8332,7 @@
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="L23" s="157"/>
+      <c r="L23" s="160"/>
       <c r="M23" s="9" t="s">
         <v>79</v>
       </c>
@@ -8401,7 +8349,7 @@
       <c r="R23" s="6"/>
     </row>
     <row r="24" spans="1:18" ht="27">
-      <c r="A24" s="157"/>
+      <c r="A24" s="160"/>
       <c r="B24" s="9" t="s">
         <v>82</v>
       </c>
@@ -8416,7 +8364,7 @@
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="L24" s="157"/>
+      <c r="L24" s="160"/>
       <c r="M24" s="11" t="s">
         <v>82</v>
       </c>
@@ -8433,7 +8381,7 @@
       <c r="R24" s="6"/>
     </row>
     <row r="25" spans="1:18" ht="27">
-      <c r="A25" s="157"/>
+      <c r="A25" s="160"/>
       <c r="B25" s="9" t="s">
         <v>85</v>
       </c>
@@ -8448,7 +8396,7 @@
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="L25" s="157"/>
+      <c r="L25" s="160"/>
       <c r="M25" s="11" t="s">
         <v>812</v>
       </c>
@@ -8465,7 +8413,7 @@
       <c r="R25" s="6"/>
     </row>
     <row r="26" spans="1:18" ht="27">
-      <c r="A26" s="157"/>
+      <c r="A26" s="160"/>
       <c r="B26" s="9" t="s">
         <v>88</v>
       </c>
@@ -8480,7 +8428,7 @@
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="L26" s="157"/>
+      <c r="L26" s="160"/>
       <c r="M26" s="11" t="s">
         <v>814</v>
       </c>
@@ -8497,7 +8445,7 @@
       <c r="R26" s="6"/>
     </row>
     <row r="27" spans="1:18" ht="27">
-      <c r="A27" s="157"/>
+      <c r="A27" s="160"/>
       <c r="B27" s="9" t="s">
         <v>91</v>
       </c>
@@ -8512,7 +8460,7 @@
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
-      <c r="L27" s="157"/>
+      <c r="L27" s="160"/>
       <c r="M27" s="11" t="s">
         <v>815</v>
       </c>
@@ -8529,7 +8477,7 @@
       <c r="R27" s="6"/>
     </row>
     <row r="28" spans="1:18" ht="27">
-      <c r="A28" s="157"/>
+      <c r="A28" s="160"/>
       <c r="B28" s="9" t="s">
         <v>94</v>
       </c>
@@ -8544,7 +8492,7 @@
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
-      <c r="L28" s="157"/>
+      <c r="L28" s="160"/>
       <c r="M28" s="9" t="s">
         <v>94</v>
       </c>
@@ -8561,7 +8509,7 @@
       <c r="R28" s="6"/>
     </row>
     <row r="29" spans="1:18" ht="27">
-      <c r="A29" s="157"/>
+      <c r="A29" s="160"/>
       <c r="B29" s="9" t="s">
         <v>97</v>
       </c>
@@ -8576,7 +8524,7 @@
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
-      <c r="L29" s="157"/>
+      <c r="L29" s="160"/>
       <c r="M29" s="9" t="s">
         <v>97</v>
       </c>
@@ -8593,7 +8541,7 @@
       <c r="R29" s="6"/>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="157"/>
+      <c r="A30" s="160"/>
       <c r="B30" s="9" t="s">
         <v>100</v>
       </c>
@@ -8608,7 +8556,7 @@
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
-      <c r="L30" s="157"/>
+      <c r="L30" s="160"/>
       <c r="M30" s="11" t="s">
         <v>793</v>
       </c>
@@ -8625,7 +8573,7 @@
       <c r="R30" s="6"/>
     </row>
     <row r="31" spans="1:18" ht="94.5">
-      <c r="A31" s="158" t="s">
+      <c r="A31" s="161" t="s">
         <v>103</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -8642,7 +8590,7 @@
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
-      <c r="L31" s="158" t="s">
+      <c r="L31" s="161" t="s">
         <v>103</v>
       </c>
       <c r="M31" s="5" t="s">
@@ -8661,7 +8609,7 @@
       <c r="R31" s="6"/>
     </row>
     <row r="32" spans="1:18" ht="81">
-      <c r="A32" s="159"/>
+      <c r="A32" s="162"/>
       <c r="B32" s="5" t="s">
         <v>108</v>
       </c>
@@ -8676,7 +8624,7 @@
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
-      <c r="L32" s="159"/>
+      <c r="L32" s="162"/>
       <c r="M32" s="13" t="s">
         <v>788</v>
       </c>
@@ -8693,7 +8641,7 @@
       <c r="R32" s="6"/>
     </row>
     <row r="33" spans="1:18" ht="81">
-      <c r="A33" s="159"/>
+      <c r="A33" s="162"/>
       <c r="B33" s="5" t="s">
         <v>111</v>
       </c>
@@ -8706,7 +8654,7 @@
       <c r="E33" s="8"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
-      <c r="L33" s="159"/>
+      <c r="L33" s="162"/>
       <c r="M33" s="13" t="s">
         <v>793</v>
       </c>
@@ -8721,7 +8669,7 @@
       <c r="R33" s="6"/>
     </row>
     <row r="34" spans="1:18" ht="94.5">
-      <c r="A34" s="159"/>
+      <c r="A34" s="162"/>
       <c r="B34" s="5" t="s">
         <v>114</v>
       </c>
@@ -8736,7 +8684,7 @@
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
-      <c r="L34" s="159"/>
+      <c r="L34" s="162"/>
       <c r="M34" s="5" t="s">
         <v>787</v>
       </c>
@@ -8753,7 +8701,7 @@
       <c r="R34" s="6"/>
     </row>
     <row r="35" spans="1:18" ht="40.5">
-      <c r="A35" s="159"/>
+      <c r="A35" s="162"/>
       <c r="B35" s="13" t="s">
         <v>117</v>
       </c>
@@ -8768,7 +8716,7 @@
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
-      <c r="L35" s="159"/>
+      <c r="L35" s="162"/>
       <c r="M35" s="44" t="s">
         <v>117</v>
       </c>
@@ -8785,7 +8733,7 @@
       <c r="R35" s="6"/>
     </row>
     <row r="36" spans="1:18" ht="40.5">
-      <c r="A36" s="159"/>
+      <c r="A36" s="162"/>
       <c r="B36" s="13" t="s">
         <v>121</v>
       </c>
@@ -8798,7 +8746,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
-      <c r="L36" s="159"/>
+      <c r="L36" s="162"/>
       <c r="M36" s="44" t="s">
         <v>121</v>
       </c>
@@ -8813,7 +8761,7 @@
       <c r="R36" s="6"/>
     </row>
     <row r="37" spans="1:18" ht="54">
-      <c r="A37" s="159"/>
+      <c r="A37" s="162"/>
       <c r="B37" s="13" t="s">
         <v>124</v>
       </c>
@@ -8828,7 +8776,7 @@
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
-      <c r="L37" s="159"/>
+      <c r="L37" s="162"/>
       <c r="M37" s="13" t="s">
         <v>794</v>
       </c>
@@ -8845,7 +8793,7 @@
       <c r="R37" s="6"/>
     </row>
     <row r="38" spans="1:18" ht="67.5">
-      <c r="A38" s="159"/>
+      <c r="A38" s="162"/>
       <c r="B38" s="13" t="s">
         <v>127</v>
       </c>
@@ -8860,7 +8808,7 @@
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
-      <c r="L38" s="159"/>
+      <c r="L38" s="162"/>
       <c r="M38" s="13" t="s">
         <v>134</v>
       </c>
@@ -8877,7 +8825,7 @@
       <c r="R38" s="6"/>
     </row>
     <row r="39" spans="1:18" ht="54">
-      <c r="A39" s="159"/>
+      <c r="A39" s="162"/>
       <c r="B39" s="13" t="s">
         <v>131</v>
       </c>
@@ -8892,7 +8840,7 @@
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
-      <c r="L39" s="159"/>
+      <c r="L39" s="162"/>
       <c r="M39" s="13" t="s">
         <v>143</v>
       </c>
@@ -8909,7 +8857,7 @@
       <c r="R39" s="6"/>
     </row>
     <row r="40" spans="1:18" ht="81">
-      <c r="A40" s="159"/>
+      <c r="A40" s="162"/>
       <c r="B40" s="13" t="s">
         <v>134</v>
       </c>
@@ -8924,7 +8872,7 @@
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
-      <c r="L40" s="159"/>
+      <c r="L40" s="162"/>
       <c r="M40" s="13" t="s">
         <v>790</v>
       </c>
@@ -8941,7 +8889,7 @@
       <c r="R40" s="6"/>
     </row>
     <row r="41" spans="1:18" ht="94.5">
-      <c r="A41" s="159"/>
+      <c r="A41" s="162"/>
       <c r="B41" s="13" t="s">
         <v>137</v>
       </c>
@@ -8956,7 +8904,7 @@
       </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
-      <c r="L41" s="159"/>
+      <c r="L41" s="162"/>
       <c r="M41" s="13" t="s">
         <v>124</v>
       </c>
@@ -8973,7 +8921,7 @@
       <c r="R41" s="6"/>
     </row>
     <row r="42" spans="1:18" ht="94.5">
-      <c r="A42" s="159"/>
+      <c r="A42" s="162"/>
       <c r="B42" s="13" t="s">
         <v>140</v>
       </c>
@@ -8988,7 +8936,7 @@
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
-      <c r="L42" s="159"/>
+      <c r="L42" s="162"/>
       <c r="M42" s="13" t="s">
         <v>127</v>
       </c>
@@ -9005,7 +8953,7 @@
       <c r="R42" s="6"/>
     </row>
     <row r="43" spans="1:18" ht="81">
-      <c r="A43" s="159"/>
+      <c r="A43" s="162"/>
       <c r="B43" s="13" t="s">
         <v>143</v>
       </c>
@@ -9020,7 +8968,7 @@
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="L43" s="159"/>
+      <c r="L43" s="162"/>
       <c r="M43" s="13" t="s">
         <v>131</v>
       </c>
@@ -9037,7 +8985,7 @@
       <c r="R43" s="6"/>
     </row>
     <row r="44" spans="1:18" ht="81">
-      <c r="A44" s="159"/>
+      <c r="A44" s="162"/>
       <c r="B44" s="13" t="s">
         <v>134</v>
       </c>
@@ -9052,7 +9000,7 @@
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="L44" s="159"/>
+      <c r="L44" s="162"/>
       <c r="M44" s="13" t="s">
         <v>134</v>
       </c>
@@ -9069,7 +9017,7 @@
       <c r="R44" s="6"/>
     </row>
     <row r="45" spans="1:18" ht="94.5">
-      <c r="A45" s="159"/>
+      <c r="A45" s="162"/>
       <c r="B45" s="13" t="s">
         <v>137</v>
       </c>
@@ -9084,7 +9032,7 @@
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="L45" s="159"/>
+      <c r="L45" s="162"/>
       <c r="M45" s="13" t="s">
         <v>791</v>
       </c>
@@ -9101,7 +9049,7 @@
       <c r="R45" s="6"/>
     </row>
     <row r="46" spans="1:18" ht="94.5">
-      <c r="A46" s="159"/>
+      <c r="A46" s="162"/>
       <c r="B46" s="13" t="s">
         <v>140</v>
       </c>
@@ -9116,7 +9064,7 @@
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="L46" s="159"/>
+      <c r="L46" s="162"/>
       <c r="M46" s="13" t="s">
         <v>792</v>
       </c>
@@ -9133,7 +9081,7 @@
       <c r="R46" s="6"/>
     </row>
     <row r="47" spans="1:18" ht="54">
-      <c r="A47" s="171" t="s">
+      <c r="A47" s="169" t="s">
         <v>152</v>
       </c>
       <c r="B47" s="14" t="s">
@@ -9150,7 +9098,7 @@
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
-      <c r="L47" s="171" t="s">
+      <c r="L47" s="169" t="s">
         <v>152</v>
       </c>
       <c r="M47" s="13" t="s">
@@ -9163,7 +9111,7 @@
       <c r="R47" s="6"/>
     </row>
     <row r="48" spans="1:18" ht="40.5">
-      <c r="A48" s="172"/>
+      <c r="A48" s="170"/>
       <c r="B48" s="15" t="s">
         <v>156</v>
       </c>
@@ -9178,7 +9126,7 @@
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
-      <c r="L48" s="172"/>
+      <c r="L48" s="170"/>
       <c r="M48" s="15" t="s">
         <v>156</v>
       </c>
@@ -9195,7 +9143,7 @@
       <c r="R48" s="6"/>
     </row>
     <row r="49" spans="1:18">
-      <c r="A49" s="172"/>
+      <c r="A49" s="170"/>
       <c r="B49" s="5" t="s">
         <v>159</v>
       </c>
@@ -9210,7 +9158,7 @@
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
-      <c r="L49" s="172"/>
+      <c r="L49" s="170"/>
       <c r="M49" s="5" t="s">
         <v>159</v>
       </c>
@@ -9227,7 +9175,7 @@
       <c r="R49" s="6"/>
     </row>
     <row r="50" spans="1:18" ht="81">
-      <c r="A50" s="172"/>
+      <c r="A50" s="170"/>
       <c r="B50" s="5" t="s">
         <v>162</v>
       </c>
@@ -9240,7 +9188,7 @@
       <c r="E50" s="8"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
-      <c r="L50" s="172"/>
+      <c r="L50" s="170"/>
       <c r="M50" s="5" t="s">
         <v>162</v>
       </c>
@@ -9255,7 +9203,7 @@
       <c r="R50" s="6"/>
     </row>
     <row r="51" spans="1:18">
-      <c r="A51" s="172"/>
+      <c r="A51" s="170"/>
       <c r="B51" s="5" t="s">
         <v>165</v>
       </c>
@@ -9270,7 +9218,7 @@
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
-      <c r="L51" s="172"/>
+      <c r="L51" s="170"/>
       <c r="M51" s="5" t="s">
         <v>165</v>
       </c>
@@ -9287,7 +9235,7 @@
       <c r="R51" s="6"/>
     </row>
     <row r="52" spans="1:18" ht="40.5">
-      <c r="A52" s="172"/>
+      <c r="A52" s="170"/>
       <c r="B52" s="6" t="s">
         <v>168</v>
       </c>
@@ -9302,7 +9250,7 @@
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
-      <c r="L52" s="172"/>
+      <c r="L52" s="170"/>
       <c r="M52" s="6" t="s">
         <v>168</v>
       </c>
@@ -9319,7 +9267,7 @@
       <c r="R52" s="6"/>
     </row>
     <row r="53" spans="1:18" ht="81">
-      <c r="A53" s="172"/>
+      <c r="A53" s="170"/>
       <c r="B53" s="7" t="s">
         <v>171</v>
       </c>
@@ -9332,7 +9280,7 @@
       <c r="E53" s="8"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
-      <c r="L53" s="172"/>
+      <c r="L53" s="170"/>
       <c r="M53" s="7" t="s">
         <v>171</v>
       </c>
@@ -9347,7 +9295,7 @@
       <c r="R53" s="6"/>
     </row>
     <row r="54" spans="1:18">
-      <c r="A54" s="172"/>
+      <c r="A54" s="170"/>
       <c r="B54" s="19" t="s">
         <v>174</v>
       </c>
@@ -9360,7 +9308,7 @@
       <c r="E54" s="8"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
-      <c r="L54" s="172"/>
+      <c r="L54" s="170"/>
       <c r="M54" s="146" t="s">
         <v>793</v>
       </c>
@@ -9375,7 +9323,7 @@
       <c r="R54" s="6"/>
     </row>
     <row r="55" spans="1:18">
-      <c r="A55" s="172"/>
+      <c r="A55" s="170"/>
       <c r="B55" s="21" t="s">
         <v>177</v>
       </c>
@@ -9388,7 +9336,7 @@
       <c r="E55" s="8"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
-      <c r="L55" s="172"/>
+      <c r="L55" s="170"/>
       <c r="M55" s="148" t="s">
         <v>177</v>
       </c>
@@ -9403,7 +9351,7 @@
       <c r="R55" s="6"/>
     </row>
     <row r="56" spans="1:18">
-      <c r="A56" s="172"/>
+      <c r="A56" s="170"/>
       <c r="B56" s="5" t="s">
         <v>180</v>
       </c>
@@ -9416,7 +9364,7 @@
       <c r="E56" s="8"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
-      <c r="L56" s="172"/>
+      <c r="L56" s="170"/>
       <c r="M56" s="13" t="s">
         <v>180</v>
       </c>
@@ -9431,7 +9379,7 @@
       <c r="R56" s="6"/>
     </row>
     <row r="57" spans="1:18">
-      <c r="A57" s="172"/>
+      <c r="A57" s="170"/>
       <c r="B57" s="5" t="s">
         <v>183</v>
       </c>
@@ -9444,7 +9392,7 @@
       <c r="E57" s="8"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
-      <c r="L57" s="172"/>
+      <c r="L57" s="170"/>
       <c r="M57" s="13" t="s">
         <v>183</v>
       </c>
@@ -9459,7 +9407,7 @@
       <c r="R57" s="6"/>
     </row>
     <row r="58" spans="1:18">
-      <c r="A58" s="172"/>
+      <c r="A58" s="170"/>
       <c r="B58" s="5" t="s">
         <v>186</v>
       </c>
@@ -9472,7 +9420,7 @@
       <c r="E58" s="8"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
-      <c r="L58" s="172"/>
+      <c r="L58" s="170"/>
       <c r="M58" s="147" t="s">
         <v>801</v>
       </c>
@@ -9487,7 +9435,7 @@
       <c r="R58" s="6"/>
     </row>
     <row r="59" spans="1:18" ht="94.5">
-      <c r="A59" s="172"/>
+      <c r="A59" s="170"/>
       <c r="B59" s="5" t="s">
         <v>189</v>
       </c>
@@ -9500,7 +9448,7 @@
       <c r="E59" s="8"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
-      <c r="L59" s="172"/>
+      <c r="L59" s="170"/>
       <c r="M59" s="147" t="s">
         <v>189</v>
       </c>
@@ -9515,7 +9463,7 @@
       <c r="R59" s="6"/>
     </row>
     <row r="60" spans="1:18" ht="27">
-      <c r="A60" s="172"/>
+      <c r="A60" s="170"/>
       <c r="B60" s="5" t="s">
         <v>192</v>
       </c>
@@ -9530,7 +9478,7 @@
       </c>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
-      <c r="L60" s="172"/>
+      <c r="L60" s="170"/>
       <c r="M60" s="13" t="s">
         <v>192</v>
       </c>
@@ -9547,7 +9495,7 @@
       <c r="R60" s="6"/>
     </row>
     <row r="61" spans="1:18">
-      <c r="A61" s="172"/>
+      <c r="A61" s="170"/>
       <c r="B61" s="5" t="s">
         <v>195</v>
       </c>
@@ -9560,7 +9508,7 @@
       <c r="E61" s="23"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
-      <c r="L61" s="172"/>
+      <c r="L61" s="170"/>
       <c r="M61" s="5" t="s">
         <v>195</v>
       </c>
@@ -9575,7 +9523,7 @@
       <c r="R61" s="6"/>
     </row>
     <row r="62" spans="1:18">
-      <c r="A62" s="172"/>
+      <c r="A62" s="170"/>
       <c r="B62" s="5" t="s">
         <v>198</v>
       </c>
@@ -9588,7 +9536,7 @@
       <c r="E62" s="23"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
-      <c r="L62" s="172"/>
+      <c r="L62" s="170"/>
       <c r="M62" s="5" t="s">
         <v>198</v>
       </c>
@@ -9603,7 +9551,7 @@
       <c r="R62" s="6"/>
     </row>
     <row r="63" spans="1:18" ht="40.5">
-      <c r="A63" s="172"/>
+      <c r="A63" s="170"/>
       <c r="B63" s="24" t="s">
         <v>201</v>
       </c>
@@ -9618,7 +9566,7 @@
       </c>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
-      <c r="L63" s="172"/>
+      <c r="L63" s="170"/>
       <c r="M63" s="149" t="s">
         <v>793</v>
       </c>
@@ -9635,7 +9583,7 @@
       <c r="R63" s="6"/>
     </row>
     <row r="64" spans="1:18" ht="40.5">
-      <c r="A64" s="172"/>
+      <c r="A64" s="170"/>
       <c r="B64" s="5" t="s">
         <v>204</v>
       </c>
@@ -9650,7 +9598,7 @@
       </c>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
-      <c r="L64" s="172"/>
+      <c r="L64" s="170"/>
       <c r="M64" s="147" t="s">
         <v>793</v>
       </c>
@@ -9667,7 +9615,7 @@
       <c r="R64" s="6"/>
     </row>
     <row r="65" spans="1:18" ht="40.5">
-      <c r="A65" s="172"/>
+      <c r="A65" s="170"/>
       <c r="B65" s="5" t="s">
         <v>207</v>
       </c>
@@ -9682,7 +9630,7 @@
       </c>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
-      <c r="L65" s="172"/>
+      <c r="L65" s="170"/>
       <c r="M65" s="5" t="s">
         <v>207</v>
       </c>
@@ -9699,7 +9647,7 @@
       <c r="R65" s="6"/>
     </row>
     <row r="66" spans="1:18" ht="40.5">
-      <c r="A66" s="172"/>
+      <c r="A66" s="170"/>
       <c r="B66" s="5" t="s">
         <v>210</v>
       </c>
@@ -9712,7 +9660,7 @@
       <c r="E66" s="28"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
-      <c r="L66" s="172"/>
+      <c r="L66" s="170"/>
       <c r="M66" s="13" t="s">
         <v>793</v>
       </c>
@@ -9727,7 +9675,7 @@
       <c r="R66" s="6"/>
     </row>
     <row r="67" spans="1:18" ht="81">
-      <c r="A67" s="173"/>
+      <c r="A67" s="171"/>
       <c r="B67" s="5" t="s">
         <v>213</v>
       </c>
@@ -9742,7 +9690,7 @@
       </c>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
-      <c r="L67" s="173"/>
+      <c r="L67" s="171"/>
       <c r="M67" s="13" t="s">
         <v>802</v>
       </c>
@@ -9867,7 +9815,7 @@
       <c r="R71" s="6"/>
     </row>
     <row r="72" spans="1:18">
-      <c r="A72" s="174"/>
+      <c r="A72" s="172"/>
       <c r="B72" s="175"/>
       <c r="C72" s="21" t="s">
         <v>228</v>
@@ -9878,8 +9826,8 @@
       <c r="E72" s="8"/>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
-      <c r="L72" s="174"/>
-      <c r="M72" s="176" t="s">
+      <c r="L72" s="172"/>
+      <c r="M72" s="173" t="s">
         <v>806</v>
       </c>
       <c r="N72" s="6" t="s">
@@ -9893,7 +9841,7 @@
       <c r="R72" s="6"/>
     </row>
     <row r="73" spans="1:18">
-      <c r="A73" s="174"/>
+      <c r="A73" s="172"/>
       <c r="B73" s="175"/>
       <c r="C73" s="21" t="s">
         <v>230</v>
@@ -9904,8 +9852,8 @@
       <c r="E73" s="8"/>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
-      <c r="L73" s="174"/>
-      <c r="M73" s="177"/>
+      <c r="L73" s="172"/>
+      <c r="M73" s="174"/>
       <c r="N73" s="6" t="s">
         <v>230</v>
       </c>
@@ -9917,7 +9865,7 @@
       <c r="R73" s="6"/>
     </row>
     <row r="74" spans="1:18">
-      <c r="A74" s="174"/>
+      <c r="A74" s="172"/>
       <c r="B74" s="175"/>
       <c r="C74" s="21" t="s">
         <v>232</v>
@@ -9928,8 +9876,8 @@
       <c r="E74" s="8"/>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
-      <c r="L74" s="174"/>
-      <c r="M74" s="177"/>
+      <c r="L74" s="172"/>
+      <c r="M74" s="174"/>
       <c r="N74" s="6" t="s">
         <v>232</v>
       </c>
@@ -9941,7 +9889,7 @@
       <c r="R74" s="6"/>
     </row>
     <row r="75" spans="1:18" ht="54">
-      <c r="A75" s="158" t="s">
+      <c r="A75" s="161" t="s">
         <v>234</v>
       </c>
       <c r="B75" s="5" t="s">
@@ -9958,7 +9906,7 @@
       </c>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
-      <c r="L75" s="158" t="s">
+      <c r="L75" s="161" t="s">
         <v>234</v>
       </c>
       <c r="M75" s="5" t="s">
@@ -9977,7 +9925,7 @@
       <c r="R75" s="6"/>
     </row>
     <row r="76" spans="1:18" ht="54">
-      <c r="A76" s="159"/>
+      <c r="A76" s="162"/>
       <c r="B76" s="5" t="s">
         <v>238</v>
       </c>
@@ -9992,7 +9940,7 @@
       </c>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
-      <c r="L76" s="159"/>
+      <c r="L76" s="162"/>
       <c r="M76" s="5" t="s">
         <v>238</v>
       </c>
@@ -10009,7 +9957,7 @@
       <c r="R76" s="6"/>
     </row>
     <row r="77" spans="1:18" ht="81">
-      <c r="A77" s="159"/>
+      <c r="A77" s="162"/>
       <c r="B77" s="5" t="s">
         <v>241</v>
       </c>
@@ -10024,7 +9972,7 @@
       </c>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
-      <c r="L77" s="159"/>
+      <c r="L77" s="162"/>
       <c r="M77" s="5" t="s">
         <v>241</v>
       </c>
@@ -10041,7 +9989,7 @@
       <c r="R77" s="6"/>
     </row>
     <row r="78" spans="1:18" ht="54">
-      <c r="A78" s="159"/>
+      <c r="A78" s="162"/>
       <c r="B78" s="5" t="s">
         <v>244</v>
       </c>
@@ -10054,7 +10002,7 @@
       <c r="E78" s="8"/>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
-      <c r="L78" s="159"/>
+      <c r="L78" s="162"/>
       <c r="M78" s="5" t="s">
         <v>244</v>
       </c>
@@ -10069,7 +10017,7 @@
       <c r="R78" s="6"/>
     </row>
     <row r="79" spans="1:18" ht="54">
-      <c r="A79" s="159"/>
+      <c r="A79" s="162"/>
       <c r="B79" s="5" t="s">
         <v>247</v>
       </c>
@@ -10084,7 +10032,7 @@
       </c>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
-      <c r="L79" s="159"/>
+      <c r="L79" s="162"/>
       <c r="M79" s="5" t="s">
         <v>247</v>
       </c>
@@ -10101,7 +10049,7 @@
       <c r="R79" s="6"/>
     </row>
     <row r="80" spans="1:18" ht="27">
-      <c r="A80" s="159"/>
+      <c r="A80" s="162"/>
       <c r="B80" s="5" t="s">
         <v>250</v>
       </c>
@@ -10116,7 +10064,7 @@
       </c>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
-      <c r="L80" s="159"/>
+      <c r="L80" s="162"/>
       <c r="M80" s="5" t="s">
         <v>250</v>
       </c>
@@ -10133,7 +10081,7 @@
       <c r="R80" s="6"/>
     </row>
     <row r="81" spans="1:18" ht="27">
-      <c r="A81" s="159"/>
+      <c r="A81" s="162"/>
       <c r="B81" s="5" t="s">
         <v>253</v>
       </c>
@@ -10148,7 +10096,7 @@
       </c>
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
-      <c r="L81" s="159"/>
+      <c r="L81" s="162"/>
       <c r="M81" s="5" t="s">
         <v>253</v>
       </c>
@@ -10165,7 +10113,7 @@
       <c r="R81" s="6"/>
     </row>
     <row r="82" spans="1:18" ht="40.5">
-      <c r="A82" s="159"/>
+      <c r="A82" s="162"/>
       <c r="B82" s="5" t="s">
         <v>256</v>
       </c>
@@ -10180,7 +10128,7 @@
       </c>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
-      <c r="L82" s="159"/>
+      <c r="L82" s="162"/>
       <c r="M82" s="5" t="s">
         <v>256</v>
       </c>
@@ -10197,7 +10145,7 @@
       <c r="R82" s="6"/>
     </row>
     <row r="83" spans="1:18" ht="40.5">
-      <c r="A83" s="159"/>
+      <c r="A83" s="162"/>
       <c r="B83" s="5" t="s">
         <v>259</v>
       </c>
@@ -10212,7 +10160,7 @@
       </c>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
-      <c r="L83" s="159"/>
+      <c r="L83" s="162"/>
       <c r="M83" s="5" t="s">
         <v>259</v>
       </c>
@@ -10229,7 +10177,7 @@
       <c r="R83" s="6"/>
     </row>
     <row r="84" spans="1:18" ht="40.5">
-      <c r="A84" s="159"/>
+      <c r="A84" s="162"/>
       <c r="B84" s="5" t="s">
         <v>262</v>
       </c>
@@ -10244,7 +10192,7 @@
       </c>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
-      <c r="L84" s="159"/>
+      <c r="L84" s="162"/>
       <c r="M84" s="5" t="s">
         <v>262</v>
       </c>
@@ -10261,7 +10209,7 @@
       <c r="R84" s="6"/>
     </row>
     <row r="85" spans="1:18" ht="40.5">
-      <c r="A85" s="159"/>
+      <c r="A85" s="162"/>
       <c r="B85" s="5" t="s">
         <v>265</v>
       </c>
@@ -10276,7 +10224,7 @@
       </c>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
-      <c r="L85" s="159"/>
+      <c r="L85" s="162"/>
       <c r="M85" s="5" t="s">
         <v>265</v>
       </c>
@@ -10293,7 +10241,7 @@
       <c r="R85" s="6"/>
     </row>
     <row r="86" spans="1:18" ht="40.5">
-      <c r="A86" s="159"/>
+      <c r="A86" s="162"/>
       <c r="B86" s="5" t="s">
         <v>268</v>
       </c>
@@ -10308,7 +10256,7 @@
       </c>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
-      <c r="L86" s="159"/>
+      <c r="L86" s="162"/>
       <c r="M86" s="5" t="s">
         <v>268</v>
       </c>
@@ -10325,7 +10273,7 @@
       <c r="R86" s="6"/>
     </row>
     <row r="87" spans="1:18" ht="40.5">
-      <c r="A87" s="159"/>
+      <c r="A87" s="162"/>
       <c r="B87" s="5" t="s">
         <v>271</v>
       </c>
@@ -10340,7 +10288,7 @@
       </c>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
-      <c r="L87" s="159"/>
+      <c r="L87" s="162"/>
       <c r="M87" s="5" t="s">
         <v>271</v>
       </c>
@@ -10357,7 +10305,7 @@
       <c r="R87" s="6"/>
     </row>
     <row r="88" spans="1:18" ht="27">
-      <c r="A88" s="159"/>
+      <c r="A88" s="162"/>
       <c r="B88" s="5" t="s">
         <v>274</v>
       </c>
@@ -10372,7 +10320,7 @@
       </c>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
-      <c r="L88" s="159"/>
+      <c r="L88" s="162"/>
       <c r="M88" s="5" t="s">
         <v>274</v>
       </c>
@@ -10389,7 +10337,7 @@
       <c r="R88" s="6"/>
     </row>
     <row r="89" spans="1:18" ht="27">
-      <c r="A89" s="159"/>
+      <c r="A89" s="162"/>
       <c r="B89" s="5" t="s">
         <v>277</v>
       </c>
@@ -10404,7 +10352,7 @@
       </c>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
-      <c r="L89" s="159"/>
+      <c r="L89" s="162"/>
       <c r="M89" s="5" t="s">
         <v>277</v>
       </c>
@@ -10421,7 +10369,7 @@
       <c r="R89" s="6"/>
     </row>
     <row r="90" spans="1:18" ht="67.5">
-      <c r="A90" s="159"/>
+      <c r="A90" s="162"/>
       <c r="B90" s="5" t="s">
         <v>280</v>
       </c>
@@ -10436,7 +10384,7 @@
       </c>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
-      <c r="L90" s="159"/>
+      <c r="L90" s="162"/>
       <c r="M90" s="5" t="s">
         <v>280</v>
       </c>
@@ -10453,7 +10401,7 @@
       <c r="R90" s="6"/>
     </row>
     <row r="91" spans="1:18" ht="67.5">
-      <c r="A91" s="159"/>
+      <c r="A91" s="162"/>
       <c r="B91" s="5" t="s">
         <v>283</v>
       </c>
@@ -10466,7 +10414,7 @@
       <c r="E91" s="8"/>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
-      <c r="L91" s="159"/>
+      <c r="L91" s="162"/>
       <c r="M91" s="5" t="s">
         <v>283</v>
       </c>
@@ -10481,7 +10429,7 @@
       <c r="R91" s="6"/>
     </row>
     <row r="92" spans="1:18" ht="67.5">
-      <c r="A92" s="159"/>
+      <c r="A92" s="162"/>
       <c r="B92" s="5" t="s">
         <v>286</v>
       </c>
@@ -10496,7 +10444,7 @@
       </c>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
-      <c r="L92" s="159"/>
+      <c r="L92" s="162"/>
       <c r="M92" s="5" t="s">
         <v>286</v>
       </c>
@@ -10513,7 +10461,7 @@
       <c r="R92" s="6"/>
     </row>
     <row r="93" spans="1:18" ht="67.5">
-      <c r="A93" s="159"/>
+      <c r="A93" s="162"/>
       <c r="B93" s="5" t="s">
         <v>289</v>
       </c>
@@ -10528,7 +10476,7 @@
       </c>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
-      <c r="L93" s="159"/>
+      <c r="L93" s="162"/>
       <c r="M93" s="5" t="s">
         <v>289</v>
       </c>
@@ -10545,7 +10493,7 @@
       <c r="R93" s="6"/>
     </row>
     <row r="94" spans="1:18" ht="54">
-      <c r="A94" s="159"/>
+      <c r="A94" s="162"/>
       <c r="B94" s="5" t="s">
         <v>292</v>
       </c>
@@ -10560,7 +10508,7 @@
       </c>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
-      <c r="L94" s="159"/>
+      <c r="L94" s="162"/>
       <c r="M94" s="5" t="s">
         <v>292</v>
       </c>
@@ -10577,7 +10525,7 @@
       <c r="R94" s="6"/>
     </row>
     <row r="95" spans="1:18" ht="54">
-      <c r="A95" s="159"/>
+      <c r="A95" s="162"/>
       <c r="B95" s="5" t="s">
         <v>295</v>
       </c>
@@ -10592,7 +10540,7 @@
       </c>
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
-      <c r="L95" s="159"/>
+      <c r="L95" s="162"/>
       <c r="M95" s="5" t="s">
         <v>295</v>
       </c>
@@ -10609,7 +10557,7 @@
       <c r="R95" s="6"/>
     </row>
     <row r="96" spans="1:18" ht="54">
-      <c r="A96" s="159"/>
+      <c r="A96" s="162"/>
       <c r="B96" s="5" t="s">
         <v>298</v>
       </c>
@@ -10624,7 +10572,7 @@
       </c>
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
-      <c r="L96" s="159"/>
+      <c r="L96" s="162"/>
       <c r="M96" s="5" t="s">
         <v>298</v>
       </c>
@@ -10641,7 +10589,7 @@
       <c r="R96" s="6"/>
     </row>
     <row r="97" spans="1:18" ht="40.5">
-      <c r="A97" s="159"/>
+      <c r="A97" s="162"/>
       <c r="B97" s="5" t="s">
         <v>301</v>
       </c>
@@ -10656,7 +10604,7 @@
       </c>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
-      <c r="L97" s="159"/>
+      <c r="L97" s="162"/>
       <c r="M97" s="5" t="s">
         <v>301</v>
       </c>
@@ -10673,7 +10621,7 @@
       <c r="R97" s="6"/>
     </row>
     <row r="98" spans="1:18" ht="40.5">
-      <c r="A98" s="159"/>
+      <c r="A98" s="162"/>
       <c r="B98" s="5" t="s">
         <v>304</v>
       </c>
@@ -10688,7 +10636,7 @@
       </c>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
-      <c r="L98" s="159"/>
+      <c r="L98" s="162"/>
       <c r="M98" s="5" t="s">
         <v>304</v>
       </c>
@@ -10705,7 +10653,7 @@
       <c r="R98" s="6"/>
     </row>
     <row r="99" spans="1:18" ht="27">
-      <c r="A99" s="159"/>
+      <c r="A99" s="162"/>
       <c r="B99" s="5" t="s">
         <v>307</v>
       </c>
@@ -10720,7 +10668,7 @@
       </c>
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
-      <c r="L99" s="159"/>
+      <c r="L99" s="162"/>
       <c r="M99" s="5" t="s">
         <v>307</v>
       </c>
@@ -10737,7 +10685,7 @@
       <c r="R99" s="6"/>
     </row>
     <row r="100" spans="1:18" ht="27">
-      <c r="A100" s="159"/>
+      <c r="A100" s="162"/>
       <c r="B100" s="5" t="s">
         <v>310</v>
       </c>
@@ -10752,7 +10700,7 @@
       </c>
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
-      <c r="L100" s="159"/>
+      <c r="L100" s="162"/>
       <c r="M100" s="5" t="s">
         <v>310</v>
       </c>
@@ -10769,7 +10717,7 @@
       <c r="R100" s="6"/>
     </row>
     <row r="101" spans="1:18" ht="40.5">
-      <c r="A101" s="159"/>
+      <c r="A101" s="162"/>
       <c r="B101" s="5" t="s">
         <v>313</v>
       </c>
@@ -10784,7 +10732,7 @@
       </c>
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
-      <c r="L101" s="159"/>
+      <c r="L101" s="162"/>
       <c r="M101" s="5" t="s">
         <v>313</v>
       </c>
@@ -10801,7 +10749,7 @@
       <c r="R101" s="6"/>
     </row>
     <row r="102" spans="1:18" ht="40.5">
-      <c r="A102" s="159"/>
+      <c r="A102" s="162"/>
       <c r="B102" s="5" t="s">
         <v>316</v>
       </c>
@@ -10816,7 +10764,7 @@
       </c>
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
-      <c r="L102" s="159"/>
+      <c r="L102" s="162"/>
       <c r="M102" s="5" t="s">
         <v>316</v>
       </c>
@@ -10833,7 +10781,7 @@
       <c r="R102" s="6"/>
     </row>
     <row r="103" spans="1:18" ht="67.5">
-      <c r="A103" s="159"/>
+      <c r="A103" s="162"/>
       <c r="B103" s="5" t="s">
         <v>319</v>
       </c>
@@ -10848,7 +10796,7 @@
       </c>
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
-      <c r="L103" s="159"/>
+      <c r="L103" s="162"/>
       <c r="M103" s="5" t="s">
         <v>319</v>
       </c>
@@ -10865,7 +10813,7 @@
       <c r="R103" s="6"/>
     </row>
     <row r="104" spans="1:18" ht="67.5">
-      <c r="A104" s="159"/>
+      <c r="A104" s="162"/>
       <c r="B104" s="5" t="s">
         <v>322</v>
       </c>
@@ -10880,7 +10828,7 @@
       </c>
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
-      <c r="L104" s="159"/>
+      <c r="L104" s="162"/>
       <c r="M104" s="5" t="s">
         <v>322</v>
       </c>
@@ -10897,7 +10845,7 @@
       <c r="R104" s="6"/>
     </row>
     <row r="105" spans="1:18" ht="67.5">
-      <c r="A105" s="159"/>
+      <c r="A105" s="162"/>
       <c r="B105" s="5" t="s">
         <v>325</v>
       </c>
@@ -10912,7 +10860,7 @@
       </c>
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
-      <c r="L105" s="159"/>
+      <c r="L105" s="162"/>
       <c r="M105" s="5" t="s">
         <v>325</v>
       </c>
@@ -10929,7 +10877,7 @@
       <c r="R105" s="6"/>
     </row>
     <row r="106" spans="1:18" ht="67.5">
-      <c r="A106" s="159"/>
+      <c r="A106" s="162"/>
       <c r="B106" s="5" t="s">
         <v>328</v>
       </c>
@@ -10944,7 +10892,7 @@
       </c>
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
-      <c r="L106" s="159"/>
+      <c r="L106" s="162"/>
       <c r="M106" s="5" t="s">
         <v>328</v>
       </c>
@@ -10961,7 +10909,7 @@
       <c r="R106" s="6"/>
     </row>
     <row r="107" spans="1:18" ht="67.5">
-      <c r="A107" s="159"/>
+      <c r="A107" s="162"/>
       <c r="B107" s="5" t="s">
         <v>331</v>
       </c>
@@ -10976,7 +10924,7 @@
       </c>
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
-      <c r="L107" s="159"/>
+      <c r="L107" s="162"/>
       <c r="M107" s="5" t="s">
         <v>331</v>
       </c>
@@ -10993,7 +10941,7 @@
       <c r="R107" s="6"/>
     </row>
     <row r="108" spans="1:18" ht="81">
-      <c r="A108" s="159"/>
+      <c r="A108" s="162"/>
       <c r="B108" s="5" t="s">
         <v>334</v>
       </c>
@@ -11008,7 +10956,7 @@
       </c>
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
-      <c r="L108" s="159"/>
+      <c r="L108" s="162"/>
       <c r="M108" s="5" t="s">
         <v>334</v>
       </c>
@@ -11025,7 +10973,7 @@
       <c r="R108" s="6"/>
     </row>
     <row r="109" spans="1:18" ht="67.5">
-      <c r="A109" s="159"/>
+      <c r="A109" s="162"/>
       <c r="B109" s="5" t="s">
         <v>337</v>
       </c>
@@ -11040,7 +10988,7 @@
       </c>
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
-      <c r="L109" s="159"/>
+      <c r="L109" s="162"/>
       <c r="M109" s="5" t="s">
         <v>337</v>
       </c>
@@ -11057,7 +11005,7 @@
       <c r="R109" s="6"/>
     </row>
     <row r="110" spans="1:18" ht="40.5">
-      <c r="A110" s="159"/>
+      <c r="A110" s="162"/>
       <c r="B110" s="5" t="s">
         <v>340</v>
       </c>
@@ -11072,7 +11020,7 @@
       </c>
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
-      <c r="L110" s="159"/>
+      <c r="L110" s="162"/>
       <c r="M110" s="5" t="s">
         <v>340</v>
       </c>
@@ -11089,7 +11037,7 @@
       <c r="R110" s="6"/>
     </row>
     <row r="111" spans="1:18" ht="54">
-      <c r="A111" s="159"/>
+      <c r="A111" s="162"/>
       <c r="B111" s="5" t="s">
         <v>343</v>
       </c>
@@ -11104,7 +11052,7 @@
       </c>
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
-      <c r="L111" s="159"/>
+      <c r="L111" s="162"/>
       <c r="M111" s="5" t="s">
         <v>343</v>
       </c>
@@ -11121,7 +11069,7 @@
       <c r="R111" s="6"/>
     </row>
     <row r="112" spans="1:18" ht="54">
-      <c r="A112" s="160"/>
+      <c r="A112" s="163"/>
       <c r="B112" s="5" t="s">
         <v>346</v>
       </c>
@@ -11136,7 +11084,7 @@
       </c>
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
-      <c r="L112" s="160"/>
+      <c r="L112" s="163"/>
       <c r="M112" s="5" t="s">
         <v>346</v>
       </c>
@@ -11153,7 +11101,7 @@
       <c r="R112" s="6"/>
     </row>
     <row r="113" spans="1:18" ht="81">
-      <c r="A113" s="161"/>
+      <c r="A113" s="164"/>
       <c r="B113" s="13" t="s">
         <v>349</v>
       </c>
@@ -11168,7 +11116,7 @@
       </c>
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
-      <c r="L113" s="161"/>
+      <c r="L113" s="164"/>
       <c r="M113" s="13" t="s">
         <v>349</v>
       </c>
@@ -11185,7 +11133,7 @@
       <c r="R113" s="6"/>
     </row>
     <row r="114" spans="1:18" ht="81">
-      <c r="A114" s="161"/>
+      <c r="A114" s="164"/>
       <c r="B114" s="5" t="s">
         <v>352</v>
       </c>
@@ -11200,7 +11148,7 @@
       </c>
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
-      <c r="L114" s="161"/>
+      <c r="L114" s="164"/>
       <c r="M114" s="5" t="s">
         <v>352</v>
       </c>
@@ -11217,7 +11165,7 @@
       <c r="R114" s="6"/>
     </row>
     <row r="115" spans="1:18" ht="108">
-      <c r="A115" s="162"/>
+      <c r="A115" s="165"/>
       <c r="B115" s="5" t="s">
         <v>355</v>
       </c>
@@ -11232,7 +11180,7 @@
       </c>
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
-      <c r="L115" s="162"/>
+      <c r="L115" s="165"/>
       <c r="M115" s="5" t="s">
         <v>355</v>
       </c>
@@ -11249,7 +11197,7 @@
       <c r="R115" s="6"/>
     </row>
     <row r="116" spans="1:18">
-      <c r="A116" s="158" t="s">
+      <c r="A116" s="161" t="s">
         <v>358</v>
       </c>
       <c r="B116" s="5" t="s">
@@ -11266,7 +11214,7 @@
       </c>
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
-      <c r="L116" s="158" t="s">
+      <c r="L116" s="161" t="s">
         <v>358</v>
       </c>
       <c r="M116" s="5" t="s">
@@ -11285,7 +11233,7 @@
       <c r="R116" s="6"/>
     </row>
     <row r="117" spans="1:18">
-      <c r="A117" s="162"/>
+      <c r="A117" s="165"/>
       <c r="B117" s="5" t="s">
         <v>362</v>
       </c>
@@ -11300,7 +11248,7 @@
       </c>
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
-      <c r="L117" s="162"/>
+      <c r="L117" s="165"/>
       <c r="M117" s="5" t="s">
         <v>362</v>
       </c>
@@ -11317,7 +11265,7 @@
       <c r="R117" s="6"/>
     </row>
     <row r="118" spans="1:18" ht="108">
-      <c r="A118" s="158" t="s">
+      <c r="A118" s="161" t="s">
         <v>365</v>
       </c>
       <c r="B118" s="5" t="s">
@@ -11332,7 +11280,7 @@
       <c r="E118" s="8"/>
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
-      <c r="L118" s="158" t="s">
+      <c r="L118" s="161" t="s">
         <v>365</v>
       </c>
       <c r="M118" s="5" t="s">
@@ -11349,7 +11297,7 @@
       <c r="R118" s="6"/>
     </row>
     <row r="119" spans="1:18" ht="108">
-      <c r="A119" s="161"/>
+      <c r="A119" s="164"/>
       <c r="B119" s="5" t="s">
         <v>369</v>
       </c>
@@ -11362,7 +11310,7 @@
       <c r="E119" s="8"/>
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
-      <c r="L119" s="161"/>
+      <c r="L119" s="164"/>
       <c r="M119" s="5" t="s">
         <v>369</v>
       </c>
@@ -11377,7 +11325,7 @@
       <c r="R119" s="6"/>
     </row>
     <row r="120" spans="1:18" ht="108">
-      <c r="A120" s="161"/>
+      <c r="A120" s="164"/>
       <c r="B120" s="5" t="s">
         <v>372</v>
       </c>
@@ -11390,7 +11338,7 @@
       <c r="E120" s="8"/>
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
-      <c r="L120" s="161"/>
+      <c r="L120" s="164"/>
       <c r="M120" s="5" t="s">
         <v>372</v>
       </c>
@@ -11405,7 +11353,7 @@
       <c r="R120" s="6"/>
     </row>
     <row r="121" spans="1:18" ht="108">
-      <c r="A121" s="162"/>
+      <c r="A121" s="165"/>
       <c r="B121" s="5" t="s">
         <v>375</v>
       </c>
@@ -11418,7 +11366,7 @@
       <c r="E121" s="8"/>
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
-      <c r="L121" s="162"/>
+      <c r="L121" s="165"/>
       <c r="M121" s="5" t="s">
         <v>375</v>
       </c>
@@ -11433,7 +11381,7 @@
       <c r="R121" s="6"/>
     </row>
     <row r="122" spans="1:18" ht="54">
-      <c r="A122" s="163" t="s">
+      <c r="A122" s="176" t="s">
         <v>378</v>
       </c>
       <c r="B122" s="36" t="s">
@@ -11448,7 +11396,7 @@
       <c r="E122" s="8"/>
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
-      <c r="L122" s="158" t="s">
+      <c r="L122" s="161" t="s">
         <v>378</v>
       </c>
       <c r="M122" s="36" t="s">
@@ -11465,7 +11413,7 @@
       <c r="R122" s="6"/>
     </row>
     <row r="123" spans="1:18" ht="94.5">
-      <c r="A123" s="164"/>
+      <c r="A123" s="177"/>
       <c r="B123" s="36" t="s">
         <v>382</v>
       </c>
@@ -11478,7 +11426,7 @@
       <c r="E123" s="8"/>
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
-      <c r="L123" s="161"/>
+      <c r="L123" s="164"/>
       <c r="M123" s="36" t="s">
         <v>382</v>
       </c>
@@ -11493,7 +11441,7 @@
       <c r="R123" s="6"/>
     </row>
     <row r="124" spans="1:18" ht="81.75" thickBot="1">
-      <c r="A124" s="164"/>
+      <c r="A124" s="177"/>
       <c r="B124" s="36" t="s">
         <v>385</v>
       </c>
@@ -11508,7 +11456,7 @@
       </c>
       <c r="F124" s="38"/>
       <c r="G124" s="6"/>
-      <c r="L124" s="161"/>
+      <c r="L124" s="164"/>
       <c r="M124" s="36" t="s">
         <v>803</v>
       </c>
@@ -11525,7 +11473,7 @@
       <c r="R124" s="6"/>
     </row>
     <row r="125" spans="1:18">
-      <c r="A125" s="165" t="s">
+      <c r="A125" s="178" t="s">
         <v>388</v>
       </c>
       <c r="B125" s="39" t="s">
@@ -11540,7 +11488,7 @@
       <c r="E125" s="42"/>
       <c r="F125" s="43"/>
       <c r="G125" s="6"/>
-      <c r="L125" s="178" t="s">
+      <c r="L125" s="157" t="s">
         <v>793</v>
       </c>
       <c r="M125" s="154" t="s">
@@ -11557,7 +11505,7 @@
       <c r="R125" s="6"/>
     </row>
     <row r="126" spans="1:18">
-      <c r="A126" s="166"/>
+      <c r="A126" s="179"/>
       <c r="B126" s="44" t="s">
         <v>392</v>
       </c>
@@ -11570,7 +11518,7 @@
       <c r="E126" s="45"/>
       <c r="F126" s="43"/>
       <c r="G126" s="6"/>
-      <c r="L126" s="179"/>
+      <c r="L126" s="158"/>
       <c r="M126" s="147" t="s">
         <v>793</v>
       </c>
@@ -11585,7 +11533,7 @@
       <c r="R126" s="6"/>
     </row>
     <row r="127" spans="1:18" ht="14.25" thickBot="1">
-      <c r="A127" s="167"/>
+      <c r="A127" s="180"/>
       <c r="B127" s="46" t="s">
         <v>395</v>
       </c>
@@ -11598,7 +11546,7 @@
       <c r="E127" s="49"/>
       <c r="F127" s="43"/>
       <c r="G127" s="6"/>
-      <c r="L127" s="180"/>
+      <c r="L127" s="159"/>
       <c r="M127" s="46" t="s">
         <v>395</v>
       </c>
@@ -11645,7 +11593,7 @@
       <c r="R128" s="6"/>
     </row>
     <row r="129" spans="1:18">
-      <c r="A129" s="157" t="s">
+      <c r="A129" s="160" t="s">
         <v>401</v>
       </c>
       <c r="B129" s="51" t="s">
@@ -11660,7 +11608,7 @@
       <c r="E129" s="8"/>
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
-      <c r="L129" s="157" t="s">
+      <c r="L129" s="160" t="s">
         <v>401</v>
       </c>
       <c r="M129" s="51" t="s">
@@ -11677,7 +11625,7 @@
       <c r="R129" s="6"/>
     </row>
     <row r="130" spans="1:18">
-      <c r="A130" s="157"/>
+      <c r="A130" s="160"/>
       <c r="B130" s="51" t="s">
         <v>405</v>
       </c>
@@ -11690,7 +11638,7 @@
       <c r="E130" s="8"/>
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
-      <c r="L130" s="157"/>
+      <c r="L130" s="160"/>
       <c r="M130" s="51" t="s">
         <v>405</v>
       </c>
@@ -11705,7 +11653,7 @@
       <c r="R130" s="6"/>
     </row>
     <row r="131" spans="1:18">
-      <c r="A131" s="157" t="s">
+      <c r="A131" s="160" t="s">
         <v>407</v>
       </c>
       <c r="B131" s="5" t="s">
@@ -11720,7 +11668,7 @@
       <c r="E131" s="8"/>
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
-      <c r="L131" s="157" t="s">
+      <c r="L131" s="160" t="s">
         <v>407</v>
       </c>
       <c r="M131" s="5" t="s">
@@ -11737,7 +11685,7 @@
       <c r="R131" s="6"/>
     </row>
     <row r="132" spans="1:18">
-      <c r="A132" s="157"/>
+      <c r="A132" s="160"/>
       <c r="B132" s="5" t="s">
         <v>410</v>
       </c>
@@ -11750,7 +11698,7 @@
       <c r="E132" s="8"/>
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
-      <c r="L132" s="157"/>
+      <c r="L132" s="160"/>
       <c r="M132" s="5" t="s">
         <v>410</v>
       </c>
@@ -11765,7 +11713,7 @@
       <c r="R132" s="6"/>
     </row>
     <row r="133" spans="1:18">
-      <c r="A133" s="157"/>
+      <c r="A133" s="160"/>
       <c r="B133" s="5" t="s">
         <v>412</v>
       </c>
@@ -11778,7 +11726,7 @@
       <c r="E133" s="8"/>
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
-      <c r="L133" s="157"/>
+      <c r="L133" s="160"/>
       <c r="M133" s="5" t="s">
         <v>412</v>
       </c>
@@ -11793,7 +11741,7 @@
       <c r="R133" s="6"/>
     </row>
     <row r="134" spans="1:18">
-      <c r="A134" s="157"/>
+      <c r="A134" s="160"/>
       <c r="B134" s="5" t="s">
         <v>414</v>
       </c>
@@ -11806,7 +11754,7 @@
       <c r="E134" s="8"/>
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
-      <c r="L134" s="157"/>
+      <c r="L134" s="160"/>
       <c r="M134" s="5" t="s">
         <v>414</v>
       </c>
@@ -11821,7 +11769,7 @@
       <c r="R134" s="6"/>
     </row>
     <row r="135" spans="1:18">
-      <c r="A135" s="157"/>
+      <c r="A135" s="160"/>
       <c r="B135" s="5" t="s">
         <v>416</v>
       </c>
@@ -11834,7 +11782,7 @@
       <c r="E135" s="8"/>
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
-      <c r="L135" s="157"/>
+      <c r="L135" s="160"/>
       <c r="M135" s="5" t="s">
         <v>416</v>
       </c>
@@ -11881,7 +11829,7 @@
       <c r="R136" s="6"/>
     </row>
     <row r="137" spans="1:18">
-      <c r="A137" s="157" t="s">
+      <c r="A137" s="160" t="s">
         <v>421</v>
       </c>
       <c r="B137" s="55" t="s">
@@ -11896,7 +11844,7 @@
       <c r="E137" s="8"/>
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
-      <c r="L137" s="157" t="s">
+      <c r="L137" s="160" t="s">
         <v>421</v>
       </c>
       <c r="M137" s="55" t="s">
@@ -11913,7 +11861,7 @@
       <c r="R137" s="6"/>
     </row>
     <row r="138" spans="1:18">
-      <c r="A138" s="157"/>
+      <c r="A138" s="160"/>
       <c r="B138" s="55" t="s">
         <v>422</v>
       </c>
@@ -11926,7 +11874,7 @@
       <c r="E138" s="8"/>
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
-      <c r="L138" s="157"/>
+      <c r="L138" s="160"/>
       <c r="M138" s="55" t="s">
         <v>422</v>
       </c>
@@ -11941,7 +11889,7 @@
       <c r="R138" s="6"/>
     </row>
     <row r="139" spans="1:18">
-      <c r="A139" s="157"/>
+      <c r="A139" s="160"/>
       <c r="B139" s="55" t="s">
         <v>422</v>
       </c>
@@ -11954,7 +11902,7 @@
       <c r="E139" s="8"/>
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
-      <c r="L139" s="157"/>
+      <c r="L139" s="160"/>
       <c r="M139" s="55" t="s">
         <v>422</v>
       </c>
@@ -11969,7 +11917,7 @@
       <c r="R139" s="6"/>
     </row>
     <row r="140" spans="1:18">
-      <c r="A140" s="157"/>
+      <c r="A140" s="160"/>
       <c r="B140" s="55" t="s">
         <v>422</v>
       </c>
@@ -11982,7 +11930,7 @@
       <c r="E140" s="8"/>
       <c r="F140" s="6"/>
       <c r="G140" s="6"/>
-      <c r="L140" s="157"/>
+      <c r="L140" s="160"/>
       <c r="M140" s="55" t="s">
         <v>422</v>
       </c>
@@ -11997,7 +11945,7 @@
       <c r="R140" s="6"/>
     </row>
     <row r="141" spans="1:18">
-      <c r="A141" s="157"/>
+      <c r="A141" s="160"/>
       <c r="B141" s="55" t="s">
         <v>422</v>
       </c>
@@ -12010,7 +11958,7 @@
       <c r="E141" s="8"/>
       <c r="F141" s="6"/>
       <c r="G141" s="6"/>
-      <c r="L141" s="157"/>
+      <c r="L141" s="160"/>
       <c r="M141" s="55" t="s">
         <v>422</v>
       </c>
@@ -12025,7 +11973,7 @@
       <c r="R141" s="6"/>
     </row>
     <row r="142" spans="1:18">
-      <c r="A142" s="157"/>
+      <c r="A142" s="160"/>
       <c r="B142" s="55" t="s">
         <v>422</v>
       </c>
@@ -12038,7 +11986,7 @@
       <c r="E142" s="8"/>
       <c r="F142" s="6"/>
       <c r="G142" s="6"/>
-      <c r="L142" s="157"/>
+      <c r="L142" s="160"/>
       <c r="M142" s="55" t="s">
         <v>422</v>
       </c>
@@ -12053,7 +12001,7 @@
       <c r="R142" s="6"/>
     </row>
     <row r="143" spans="1:18">
-      <c r="A143" s="157"/>
+      <c r="A143" s="160"/>
       <c r="B143" s="55" t="s">
         <v>422</v>
       </c>
@@ -12066,7 +12014,7 @@
       <c r="E143" s="8"/>
       <c r="F143" s="6"/>
       <c r="G143" s="6"/>
-      <c r="L143" s="157"/>
+      <c r="L143" s="160"/>
       <c r="M143" s="55" t="s">
         <v>422</v>
       </c>
@@ -12081,7 +12029,7 @@
       <c r="R143" s="6"/>
     </row>
     <row r="144" spans="1:18">
-      <c r="A144" s="157"/>
+      <c r="A144" s="160"/>
       <c r="B144" s="55" t="s">
         <v>422</v>
       </c>
@@ -12094,7 +12042,7 @@
       <c r="E144" s="8"/>
       <c r="F144" s="6"/>
       <c r="G144" s="6"/>
-      <c r="L144" s="157"/>
+      <c r="L144" s="160"/>
       <c r="M144" s="55" t="s">
         <v>422</v>
       </c>
@@ -12109,7 +12057,7 @@
       <c r="R144" s="6"/>
     </row>
     <row r="145" spans="1:18">
-      <c r="A145" s="157"/>
+      <c r="A145" s="160"/>
       <c r="B145" s="55" t="s">
         <v>422</v>
       </c>
@@ -12122,7 +12070,7 @@
       <c r="E145" s="8"/>
       <c r="F145" s="6"/>
       <c r="G145" s="6"/>
-      <c r="L145" s="157"/>
+      <c r="L145" s="160"/>
       <c r="M145" s="55" t="s">
         <v>422</v>
       </c>
@@ -12137,7 +12085,7 @@
       <c r="R145" s="6"/>
     </row>
     <row r="146" spans="1:18">
-      <c r="A146" s="157"/>
+      <c r="A146" s="160"/>
       <c r="B146" s="55" t="s">
         <v>422</v>
       </c>
@@ -12150,7 +12098,7 @@
       <c r="E146" s="8"/>
       <c r="F146" s="6"/>
       <c r="G146" s="6"/>
-      <c r="L146" s="157"/>
+      <c r="L146" s="160"/>
       <c r="M146" s="55" t="s">
         <v>422</v>
       </c>
@@ -12165,7 +12113,7 @@
       <c r="R146" s="6"/>
     </row>
     <row r="147" spans="1:18">
-      <c r="A147" s="157"/>
+      <c r="A147" s="160"/>
       <c r="B147" s="5" t="s">
         <v>433</v>
       </c>
@@ -12178,7 +12126,7 @@
       <c r="E147" s="8"/>
       <c r="F147" s="6"/>
       <c r="G147" s="6"/>
-      <c r="L147" s="157"/>
+      <c r="L147" s="160"/>
       <c r="M147" s="5" t="s">
         <v>433</v>
       </c>
@@ -12193,7 +12141,7 @@
       <c r="R147" s="6"/>
     </row>
     <row r="148" spans="1:18">
-      <c r="A148" s="157"/>
+      <c r="A148" s="160"/>
       <c r="B148" s="5" t="s">
         <v>435</v>
       </c>
@@ -12206,7 +12154,7 @@
       <c r="E148" s="8"/>
       <c r="F148" s="6"/>
       <c r="G148" s="6"/>
-      <c r="L148" s="157"/>
+      <c r="L148" s="160"/>
       <c r="M148" s="5" t="s">
         <v>435</v>
       </c>
@@ -12221,7 +12169,7 @@
       <c r="R148" s="6"/>
     </row>
     <row r="149" spans="1:18">
-      <c r="A149" s="157"/>
+      <c r="A149" s="160"/>
       <c r="B149" s="5" t="s">
         <v>435</v>
       </c>
@@ -12234,7 +12182,7 @@
       <c r="E149" s="8"/>
       <c r="F149" s="6"/>
       <c r="G149" s="6"/>
-      <c r="L149" s="157"/>
+      <c r="L149" s="160"/>
       <c r="M149" s="5" t="s">
         <v>435</v>
       </c>
@@ -12249,7 +12197,7 @@
       <c r="R149" s="6"/>
     </row>
     <row r="150" spans="1:18">
-      <c r="A150" s="157"/>
+      <c r="A150" s="160"/>
       <c r="B150" s="5" t="s">
         <v>438</v>
       </c>
@@ -12262,7 +12210,7 @@
       <c r="E150" s="8"/>
       <c r="F150" s="6"/>
       <c r="G150" s="6"/>
-      <c r="L150" s="157"/>
+      <c r="L150" s="160"/>
       <c r="M150" s="5" t="s">
         <v>438</v>
       </c>
@@ -12277,7 +12225,7 @@
       <c r="R150" s="6"/>
     </row>
     <row r="151" spans="1:18">
-      <c r="A151" s="157"/>
+      <c r="A151" s="160"/>
       <c r="B151" s="5" t="s">
         <v>438</v>
       </c>
@@ -12290,7 +12238,7 @@
       <c r="E151" s="8"/>
       <c r="F151" s="6"/>
       <c r="G151" s="6"/>
-      <c r="L151" s="157"/>
+      <c r="L151" s="160"/>
       <c r="M151" s="5" t="s">
         <v>438</v>
       </c>
@@ -12305,7 +12253,7 @@
       <c r="R151" s="6"/>
     </row>
     <row r="152" spans="1:18">
-      <c r="A152" s="157"/>
+      <c r="A152" s="160"/>
       <c r="B152" s="5" t="s">
         <v>438</v>
       </c>
@@ -12318,7 +12266,7 @@
       <c r="E152" s="8"/>
       <c r="F152" s="6"/>
       <c r="G152" s="6"/>
-      <c r="L152" s="157"/>
+      <c r="L152" s="160"/>
       <c r="M152" s="5" t="s">
         <v>438</v>
       </c>
@@ -12333,7 +12281,7 @@
       <c r="R152" s="6"/>
     </row>
     <row r="153" spans="1:18">
-      <c r="A153" s="157"/>
+      <c r="A153" s="160"/>
       <c r="B153" s="5" t="s">
         <v>438</v>
       </c>
@@ -12346,7 +12294,7 @@
       <c r="E153" s="8"/>
       <c r="F153" s="6"/>
       <c r="G153" s="6"/>
-      <c r="L153" s="157"/>
+      <c r="L153" s="160"/>
       <c r="M153" s="5" t="s">
         <v>438</v>
       </c>
@@ -12361,7 +12309,7 @@
       <c r="R153" s="6"/>
     </row>
     <row r="154" spans="1:18">
-      <c r="A154" s="157"/>
+      <c r="A154" s="160"/>
       <c r="B154" s="5" t="s">
         <v>438</v>
       </c>
@@ -12374,7 +12322,7 @@
       <c r="E154" s="8"/>
       <c r="F154" s="6"/>
       <c r="G154" s="6"/>
-      <c r="L154" s="157"/>
+      <c r="L154" s="160"/>
       <c r="M154" s="5" t="s">
         <v>438</v>
       </c>
@@ -12389,7 +12337,7 @@
       <c r="R154" s="6"/>
     </row>
     <row r="155" spans="1:18">
-      <c r="A155" s="157"/>
+      <c r="A155" s="160"/>
       <c r="B155" s="5" t="s">
         <v>438</v>
       </c>
@@ -12402,7 +12350,7 @@
       <c r="E155" s="8"/>
       <c r="F155" s="6"/>
       <c r="G155" s="6"/>
-      <c r="L155" s="157"/>
+      <c r="L155" s="160"/>
       <c r="M155" s="5" t="s">
         <v>438</v>
       </c>
@@ -12417,7 +12365,7 @@
       <c r="R155" s="6"/>
     </row>
     <row r="156" spans="1:18">
-      <c r="A156" s="157"/>
+      <c r="A156" s="160"/>
       <c r="B156" s="5" t="s">
         <v>438</v>
       </c>
@@ -12430,7 +12378,7 @@
       <c r="E156" s="8"/>
       <c r="F156" s="6"/>
       <c r="G156" s="6"/>
-      <c r="L156" s="157"/>
+      <c r="L156" s="160"/>
       <c r="M156" s="5" t="s">
         <v>438</v>
       </c>
@@ -12445,7 +12393,7 @@
       <c r="R156" s="6"/>
     </row>
     <row r="157" spans="1:18">
-      <c r="A157" s="157"/>
+      <c r="A157" s="160"/>
       <c r="B157" s="5" t="s">
         <v>438</v>
       </c>
@@ -12458,7 +12406,7 @@
       <c r="E157" s="8"/>
       <c r="F157" s="6"/>
       <c r="G157" s="6"/>
-      <c r="L157" s="157"/>
+      <c r="L157" s="160"/>
       <c r="M157" s="5" t="s">
         <v>438</v>
       </c>
@@ -12473,7 +12421,7 @@
       <c r="R157" s="6"/>
     </row>
     <row r="158" spans="1:18">
-      <c r="A158" s="157"/>
+      <c r="A158" s="160"/>
       <c r="B158" s="5" t="s">
         <v>438</v>
       </c>
@@ -12486,7 +12434,7 @@
       <c r="E158" s="8"/>
       <c r="F158" s="6"/>
       <c r="G158" s="6"/>
-      <c r="L158" s="157"/>
+      <c r="L158" s="160"/>
       <c r="M158" s="5" t="s">
         <v>438</v>
       </c>
@@ -12501,7 +12449,7 @@
       <c r="R158" s="6"/>
     </row>
     <row r="159" spans="1:18">
-      <c r="A159" s="157"/>
+      <c r="A159" s="160"/>
       <c r="B159" s="5" t="s">
         <v>438</v>
       </c>
@@ -12514,7 +12462,7 @@
       <c r="E159" s="8"/>
       <c r="F159" s="6"/>
       <c r="G159" s="6"/>
-      <c r="L159" s="157"/>
+      <c r="L159" s="160"/>
       <c r="M159" s="5" t="s">
         <v>438</v>
       </c>
@@ -12529,7 +12477,7 @@
       <c r="R159" s="6"/>
     </row>
     <row r="160" spans="1:18">
-      <c r="A160" s="157"/>
+      <c r="A160" s="160"/>
       <c r="B160" s="5" t="s">
         <v>438</v>
       </c>
@@ -12542,7 +12490,7 @@
       <c r="E160" s="8"/>
       <c r="F160" s="6"/>
       <c r="G160" s="6"/>
-      <c r="L160" s="157"/>
+      <c r="L160" s="160"/>
       <c r="M160" s="5" t="s">
         <v>438</v>
       </c>
@@ -12557,7 +12505,7 @@
       <c r="R160" s="6"/>
     </row>
     <row r="161" spans="1:18">
-      <c r="A161" s="157"/>
+      <c r="A161" s="160"/>
       <c r="B161" s="5" t="s">
         <v>438</v>
       </c>
@@ -12570,7 +12518,7 @@
       <c r="E161" s="8"/>
       <c r="F161" s="6"/>
       <c r="G161" s="6"/>
-      <c r="L161" s="157"/>
+      <c r="L161" s="160"/>
       <c r="M161" s="5" t="s">
         <v>438</v>
       </c>
@@ -12585,7 +12533,7 @@
       <c r="R161" s="6"/>
     </row>
     <row r="162" spans="1:18">
-      <c r="A162" s="157"/>
+      <c r="A162" s="160"/>
       <c r="B162" s="5" t="s">
         <v>438</v>
       </c>
@@ -12598,7 +12546,7 @@
       <c r="E162" s="8"/>
       <c r="F162" s="6"/>
       <c r="G162" s="6"/>
-      <c r="L162" s="157"/>
+      <c r="L162" s="160"/>
       <c r="M162" s="5" t="s">
         <v>438</v>
       </c>
@@ -12613,7 +12561,7 @@
       <c r="R162" s="6"/>
     </row>
     <row r="163" spans="1:18">
-      <c r="A163" s="157"/>
+      <c r="A163" s="160"/>
       <c r="B163" s="5" t="s">
         <v>438</v>
       </c>
@@ -12626,7 +12574,7 @@
       <c r="E163" s="8"/>
       <c r="F163" s="6"/>
       <c r="G163" s="6"/>
-      <c r="L163" s="157"/>
+      <c r="L163" s="160"/>
       <c r="M163" s="5" t="s">
         <v>438</v>
       </c>
@@ -12641,7 +12589,7 @@
       <c r="R163" s="6"/>
     </row>
     <row r="164" spans="1:18">
-      <c r="A164" s="157"/>
+      <c r="A164" s="160"/>
       <c r="B164" s="5" t="s">
         <v>438</v>
       </c>
@@ -12654,7 +12602,7 @@
       <c r="E164" s="8"/>
       <c r="F164" s="6"/>
       <c r="G164" s="6"/>
-      <c r="L164" s="157"/>
+      <c r="L164" s="160"/>
       <c r="M164" s="5" t="s">
         <v>438</v>
       </c>
@@ -12669,7 +12617,7 @@
       <c r="R164" s="6"/>
     </row>
     <row r="165" spans="1:18">
-      <c r="A165" s="157"/>
+      <c r="A165" s="160"/>
       <c r="B165" s="5" t="s">
         <v>438</v>
       </c>
@@ -12682,7 +12630,7 @@
       <c r="E165" s="8"/>
       <c r="F165" s="6"/>
       <c r="G165" s="6"/>
-      <c r="L165" s="157"/>
+      <c r="L165" s="160"/>
       <c r="M165" s="5" t="s">
         <v>438</v>
       </c>
@@ -12697,7 +12645,7 @@
       <c r="R165" s="6"/>
     </row>
     <row r="166" spans="1:18">
-      <c r="A166" s="157"/>
+      <c r="A166" s="160"/>
       <c r="B166" s="5" t="s">
         <v>438</v>
       </c>
@@ -12710,7 +12658,7 @@
       <c r="E166" s="8"/>
       <c r="F166" s="6"/>
       <c r="G166" s="6"/>
-      <c r="L166" s="157"/>
+      <c r="L166" s="160"/>
       <c r="M166" s="5" t="s">
         <v>438</v>
       </c>
@@ -12725,7 +12673,7 @@
       <c r="R166" s="6"/>
     </row>
     <row r="167" spans="1:18">
-      <c r="A167" s="157"/>
+      <c r="A167" s="160"/>
       <c r="B167" s="5" t="s">
         <v>438</v>
       </c>
@@ -12738,7 +12686,7 @@
       <c r="E167" s="8"/>
       <c r="F167" s="6"/>
       <c r="G167" s="6"/>
-      <c r="L167" s="157"/>
+      <c r="L167" s="160"/>
       <c r="M167" s="5" t="s">
         <v>438</v>
       </c>
@@ -12753,7 +12701,7 @@
       <c r="R167" s="6"/>
     </row>
     <row r="168" spans="1:18">
-      <c r="A168" s="157"/>
+      <c r="A168" s="160"/>
       <c r="B168" s="5" t="s">
         <v>438</v>
       </c>
@@ -12766,7 +12714,7 @@
       <c r="E168" s="8"/>
       <c r="F168" s="6"/>
       <c r="G168" s="6"/>
-      <c r="L168" s="157"/>
+      <c r="L168" s="160"/>
       <c r="M168" s="5" t="s">
         <v>438</v>
       </c>
@@ -12781,7 +12729,7 @@
       <c r="R168" s="6"/>
     </row>
     <row r="169" spans="1:18">
-      <c r="A169" s="157"/>
+      <c r="A169" s="160"/>
       <c r="B169" s="5" t="s">
         <v>438</v>
       </c>
@@ -12794,7 +12742,7 @@
       <c r="E169" s="8"/>
       <c r="F169" s="6"/>
       <c r="G169" s="6"/>
-      <c r="L169" s="157"/>
+      <c r="L169" s="160"/>
       <c r="M169" s="5" t="s">
         <v>438</v>
       </c>
@@ -12809,7 +12757,7 @@
       <c r="R169" s="6"/>
     </row>
     <row r="170" spans="1:18">
-      <c r="A170" s="157"/>
+      <c r="A170" s="160"/>
       <c r="B170" s="5" t="s">
         <v>438</v>
       </c>
@@ -12822,7 +12770,7 @@
       <c r="E170" s="8"/>
       <c r="F170" s="6"/>
       <c r="G170" s="6"/>
-      <c r="L170" s="157"/>
+      <c r="L170" s="160"/>
       <c r="M170" s="5" t="s">
         <v>438</v>
       </c>
@@ -12837,7 +12785,7 @@
       <c r="R170" s="6"/>
     </row>
     <row r="171" spans="1:18">
-      <c r="A171" s="157"/>
+      <c r="A171" s="160"/>
       <c r="B171" s="51" t="s">
         <v>460</v>
       </c>
@@ -12850,7 +12798,7 @@
       <c r="E171" s="8"/>
       <c r="F171" s="6"/>
       <c r="G171" s="6"/>
-      <c r="L171" s="157"/>
+      <c r="L171" s="160"/>
       <c r="M171" s="51" t="s">
         <v>460</v>
       </c>
@@ -12865,7 +12813,7 @@
       <c r="R171" s="6"/>
     </row>
     <row r="172" spans="1:18">
-      <c r="A172" s="157"/>
+      <c r="A172" s="160"/>
       <c r="B172" s="51" t="s">
         <v>462</v>
       </c>
@@ -12878,7 +12826,7 @@
       <c r="E172" s="8"/>
       <c r="F172" s="6"/>
       <c r="G172" s="6"/>
-      <c r="L172" s="157"/>
+      <c r="L172" s="160"/>
       <c r="M172" s="51" t="s">
         <v>462</v>
       </c>
@@ -12893,7 +12841,7 @@
       <c r="R172" s="6"/>
     </row>
     <row r="173" spans="1:18">
-      <c r="A173" s="157"/>
+      <c r="A173" s="160"/>
       <c r="B173" s="51" t="s">
         <v>464</v>
       </c>
@@ -12906,7 +12854,7 @@
       <c r="E173" s="8"/>
       <c r="F173" s="6"/>
       <c r="G173" s="6"/>
-      <c r="L173" s="157"/>
+      <c r="L173" s="160"/>
       <c r="M173" s="51" t="s">
         <v>464</v>
       </c>
@@ -12921,7 +12869,7 @@
       <c r="R173" s="6"/>
     </row>
     <row r="174" spans="1:18">
-      <c r="A174" s="157"/>
+      <c r="A174" s="160"/>
       <c r="B174" s="5" t="s">
         <v>466</v>
       </c>
@@ -12934,7 +12882,7 @@
       <c r="E174" s="8"/>
       <c r="F174" s="6"/>
       <c r="G174" s="6"/>
-      <c r="L174" s="157"/>
+      <c r="L174" s="160"/>
       <c r="M174" s="5" t="s">
         <v>466</v>
       </c>
@@ -12949,7 +12897,7 @@
       <c r="R174" s="6"/>
     </row>
     <row r="175" spans="1:18">
-      <c r="A175" s="157"/>
+      <c r="A175" s="160"/>
       <c r="B175" s="5" t="s">
         <v>466</v>
       </c>
@@ -12962,7 +12910,7 @@
       <c r="E175" s="8"/>
       <c r="F175" s="6"/>
       <c r="G175" s="6"/>
-      <c r="L175" s="157"/>
+      <c r="L175" s="160"/>
       <c r="M175" s="5" t="s">
         <v>466</v>
       </c>
@@ -13009,7 +12957,7 @@
       <c r="R176" s="6"/>
     </row>
     <row r="177" spans="1:18">
-      <c r="A177" s="157" t="s">
+      <c r="A177" s="160" t="s">
         <v>472</v>
       </c>
       <c r="B177" s="5" t="s">
@@ -13024,7 +12972,7 @@
       <c r="E177" s="8"/>
       <c r="F177" s="6"/>
       <c r="G177" s="6"/>
-      <c r="L177" s="157" t="s">
+      <c r="L177" s="160" t="s">
         <v>472</v>
       </c>
       <c r="M177" s="5" t="s">
@@ -13041,7 +12989,7 @@
       <c r="R177" s="6"/>
     </row>
     <row r="178" spans="1:18">
-      <c r="A178" s="157"/>
+      <c r="A178" s="160"/>
       <c r="B178" s="5" t="s">
         <v>475</v>
       </c>
@@ -13054,7 +13002,7 @@
       <c r="E178" s="8"/>
       <c r="F178" s="6"/>
       <c r="G178" s="6"/>
-      <c r="L178" s="157"/>
+      <c r="L178" s="160"/>
       <c r="M178" s="5" t="s">
         <v>475</v>
       </c>
@@ -13070,28 +13018,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="L125:L127"/>
-    <mergeCell ref="L129:L130"/>
-    <mergeCell ref="L131:L135"/>
-    <mergeCell ref="L137:L175"/>
-    <mergeCell ref="L177:L178"/>
-    <mergeCell ref="L75:L112"/>
-    <mergeCell ref="L113:L115"/>
-    <mergeCell ref="L116:L117"/>
-    <mergeCell ref="L118:L121"/>
-    <mergeCell ref="L122:L124"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="L3:L30"/>
-    <mergeCell ref="L31:L46"/>
-    <mergeCell ref="L47:L67"/>
-    <mergeCell ref="L72:L74"/>
-    <mergeCell ref="M72:M74"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:A30"/>
-    <mergeCell ref="A31:A46"/>
-    <mergeCell ref="A47:A67"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="B72:B74"/>
     <mergeCell ref="A129:A130"/>
     <mergeCell ref="A131:A135"/>
     <mergeCell ref="A137:A175"/>
@@ -13102,6 +13028,28 @@
     <mergeCell ref="A118:A121"/>
     <mergeCell ref="A122:A124"/>
     <mergeCell ref="A125:A127"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:A30"/>
+    <mergeCell ref="A31:A46"/>
+    <mergeCell ref="A47:A67"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="L3:L30"/>
+    <mergeCell ref="L31:L46"/>
+    <mergeCell ref="L47:L67"/>
+    <mergeCell ref="L72:L74"/>
+    <mergeCell ref="M72:M74"/>
+    <mergeCell ref="L75:L112"/>
+    <mergeCell ref="L113:L115"/>
+    <mergeCell ref="L116:L117"/>
+    <mergeCell ref="L118:L121"/>
+    <mergeCell ref="L122:L124"/>
+    <mergeCell ref="L125:L127"/>
+    <mergeCell ref="L129:L130"/>
+    <mergeCell ref="L131:L135"/>
+    <mergeCell ref="L137:L175"/>
+    <mergeCell ref="L177:L178"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
